--- a/train_dataset_final.xlsx
+++ b/train_dataset_final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p008587\Documents\1obliczenia\wieckowska\USmile\U-smile one-ROC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p008587\Documents\1obliczenia\wieckowska\USmile\U-smile one-ROC\dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="description" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>disease</t>
   </si>
@@ -100,6 +101,30 @@
   </si>
   <si>
     <t>ill_high_asym</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># We used the Heart Disease dataset </t>
+  </si>
+  <si>
+    <t>#[[Detrano R, Janosi A, Steinbrunn W, Pfisterer M, Schmid J-J, Sandhu S, et al. International application of a new probability algorithm for the diagnosis of coronary artery disease. The American Journal of Cardiology 1989;64:304–10. https://doi.org/10.1016/0002-9149(89)90524-9.]]</t>
+  </si>
+  <si>
+    <t>#[[Janosi A, Steinbrunn W, Pfisterer M, Detrano R. Heart Disease 1988.]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#from the Machine Learning Repository </t>
+  </si>
+  <si>
+    <t>#[[Aha D. UCI Machine Learning Repository: Heart Disease Data Set n.d. https://archive.ics.uci.edu/ml/datasets/heart+disease (accessed July 24, 2022).]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#and generated random variables from various probability distributions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#The predicted variable is coronary artery disease (&gt;50% lumen stenosis in any major artery). </t>
+  </si>
+  <si>
+    <t>#The analysis included 331 cases from the training set, of which 174 were classified as healthy, i.e., without coronary artery disease (the non-event class labeled as 0), and 157 as diseased (the event class labeled as 1).</t>
   </si>
 </sst>
 </file>
@@ -455,7 +480,7 @@
   <dimension ref="A1:AA332"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28023,4 +28048,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>